--- a/Ideas/planilla de paguianas.xlsx
+++ b/Ideas/planilla de paguianas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>index</t>
   </si>
@@ -246,16 +246,43 @@
     <t>ID-imagen</t>
   </si>
   <si>
-    <t>galeria</t>
-  </si>
-  <si>
-    <t>ID-comentario</t>
-  </si>
-  <si>
-    <t>ID-imagen(f)</t>
-  </si>
-  <si>
-    <t>tags ves como lopongo</t>
+    <t>ID-galeria</t>
+  </si>
+  <si>
+    <t>dibujos</t>
+  </si>
+  <si>
+    <t>ID-usuario</t>
+  </si>
+  <si>
+    <t>ID-box-tags</t>
+  </si>
+  <si>
+    <t>ID-tags</t>
+  </si>
+  <si>
+    <t>nombre-tag</t>
+  </si>
+  <si>
+    <t>dibujo</t>
+  </si>
+  <si>
+    <t>arte conceptual</t>
+  </si>
+  <si>
+    <t>renacentista</t>
+  </si>
+  <si>
+    <t>diseño de entorno</t>
+  </si>
+  <si>
+    <t>videojuegos</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ID-box-tags-imagen</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1099,8 +1126,6 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -1427,9 +1452,18 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
@@ -1630,18 +1664,28 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="D32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="A32" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="G33" s="2"/>
+      <c r="J33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1649,28 +1693,90 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="G36" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A32:I32"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="C9" r:id="rId2"/>

--- a/Ideas/planilla de paguianas.xlsx
+++ b/Ideas/planilla de paguianas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>index</t>
   </si>
@@ -243,18 +243,9 @@
     <t>ID_caja</t>
   </si>
   <si>
-    <t>ID-imagen</t>
-  </si>
-  <si>
-    <t>ID-galeria</t>
-  </si>
-  <si>
     <t>dibujos</t>
   </si>
   <si>
-    <t>ID-usuario</t>
-  </si>
-  <si>
     <t>ID-box-tags</t>
   </si>
   <si>
@@ -283,6 +274,51 @@
   </si>
   <si>
     <t>ID-box-tags-imagen</t>
+  </si>
+  <si>
+    <t>ID_Perfil</t>
+  </si>
+  <si>
+    <t>ID_Galeria</t>
+  </si>
+  <si>
+    <t>Nombre Completo</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>ID_Icono</t>
+  </si>
+  <si>
+    <t>Idiomas</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>ID-Perfil</t>
+  </si>
+  <si>
+    <t>ID-Dibujo</t>
+  </si>
+  <si>
+    <t>DIbujos</t>
+  </si>
+  <si>
+    <t>Pefil dibujos</t>
+  </si>
+  <si>
+    <t>ID_P_Dibujos</t>
+  </si>
+  <si>
+    <t>ID_Dibujo</t>
+  </si>
+  <si>
+    <t>Caja_de_tags</t>
+  </si>
+  <si>
+    <t>Caja_de_comentarios</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1087,12 +1123,13 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -1107,7 +1144,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1118,7 +1155,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1126,10 +1163,33 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
@@ -1143,12 +1203,18 @@
         <v>43</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1162,12 +1228,16 @@
         <v>46</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1181,12 +1251,16 @@
         <v>159357</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1205,7 +1279,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1224,7 +1298,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1243,19 +1317,19 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1268,7 +1342,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:14">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -1326,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -1355,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="A16" s="14">
         <v>3</v>
       </c>
@@ -1665,7 +1739,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1678,53 +1752,47 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2"/>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
+      <c r="J34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" t="s">
         <v>78</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1735,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1746,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1757,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,7 +1833,26 @@
         <v>5</v>
       </c>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11">
